--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Spring.013120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Baker.Spring.013120.xlsx_with_dialog_acts.xlsx
@@ -1021,12 +1021,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2415,12 +2415,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3171,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4225,12 +4225,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4603,12 +4603,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4813,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5153,12 +5153,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5195,12 +5195,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5363,12 +5363,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5573,12 +5573,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6375,12 +6375,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6585,12 +6585,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6627,12 +6627,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7509,12 +7509,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7719,12 +7719,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7761,12 +7761,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
